--- a/db/toolsdb.xlsx
+++ b/db/toolsdb.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salatielsuriel/Desktop/rutgers/Homework/Project3/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDD35B4-ECF7-3942-8C3C-3F50E72662CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE518988-2BC9-5245-B96E-96EFCDE8AE43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="toolsdb.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="toolsdb" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>Tools</t>
   </si>
@@ -140,36 +141,44 @@
   </si>
   <si>
     <t>Electrical Test Meters</t>
+  </si>
+  <si>
+    <t>tool_name</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>deposit_amount</t>
+  </si>
+  <si>
+    <t>price_perhour</t>
+  </si>
+  <si>
+    <t>price_per4hour</t>
+  </si>
+  <si>
+    <t>price_perday</t>
+  </si>
+  <si>
+    <t>price_perweek</t>
+  </si>
+  <si>
+    <t>tool_availability</t>
+  </si>
+  <si>
+    <t>img</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,11 +201,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,164 +521,318 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="3" t="s">
-        <v>33</v>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -682,4 +843,203 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1DF74C-7C4B-A044-86CB-D193BFE16F07}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>